--- a/tp3/ej2/ej2_test_results_analysis.xlsx
+++ b/tp3/ej2/ej2_test_results_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nestor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nestor\Desktop\TDA 2024C2\TDA_cursada\tp3\ej2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A6F3B7-7AE5-49EA-9293-7CDA5D82258A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C70CC-47C1-470E-A17D-5F81198CACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="1650" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
   <si>
     <t>epsilon</t>
   </si>
@@ -390,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +421,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -434,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -443,12 +449,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1629,6 +1633,343 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Relacion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> entre epsilon y tiempo de ejecución (en ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$R$42:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$S$42:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0D4-474A-B6B2-7352756285CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="967465423"/>
+        <c:axId val="967466863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="967465423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967466863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="967466863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967465423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1749,6 +2090,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2782,6 +3163,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3402,6 +4299,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201490</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>169254</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB64FFA-318B-B7BB-18C3-4454CFB29A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3732,10 +4665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3748,6 +4681,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3783,7 +4717,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3801,21 +4735,21 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="5">
         <v>10</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="6">
         <v>10</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3833,21 +4767,21 @@
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>10</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="6">
         <v>10</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3865,21 +4799,21 @@
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <v>10</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="6">
         <v>10</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3897,21 +4831,21 @@
       <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <v>50</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>91</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="6">
         <v>50</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3929,21 +4863,21 @@
       <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="5">
         <v>50</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>95</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="6">
         <v>50</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="6">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3961,21 +4895,21 @@
       <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>50</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>98</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="6">
         <v>50</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="6">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3993,21 +4927,21 @@
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="5">
         <v>75</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>325</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="6">
         <v>75</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="6">
         <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4025,21 +4959,21 @@
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="5">
         <v>75</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="5">
         <v>310</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="6">
         <v>75</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="6">
         <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4057,21 +4991,21 @@
       <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="5">
         <v>75</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="5">
         <v>294</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="6">
         <v>75</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="6">
         <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4089,21 +5023,21 @@
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <v>100</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <v>703</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="6">
         <v>75</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="6">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4121,21 +5055,21 @@
       <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <v>100</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <v>655</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="6">
         <v>100</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="6">
         <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4153,21 +5087,21 @@
       <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <v>100</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <v>723</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="6">
         <v>100</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="6">
         <v>1212</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4185,15 +5119,15 @@
       <c r="F14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="6">
         <v>100</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="6">
         <v>1014</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4213,7 +5147,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4233,7 +5167,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4253,7 +5187,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4273,7 +5207,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4293,7 +5227,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4313,7 +5247,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4333,7 +5267,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4353,7 +5287,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4373,7 +5307,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4393,7 +5327,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4413,7 +5347,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4433,7 +5367,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4453,7 +5387,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4473,7 +5407,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -4493,7 +5427,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4513,7 +5447,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -4533,7 +5467,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4552,8 +5486,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -4572,8 +5506,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4592,8 +5526,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4612,8 +5546,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -4632,8 +5566,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -4652,7 +5586,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I38" s="1" t="s">
         <v>2</v>
       </c>
@@ -4660,91 +5594,115 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="10">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I39" s="7">
         <v>10</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="10">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I40" s="7">
         <v>10</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I41" s="10">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I41" s="7">
         <v>10</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="7">
         <v>1</v>
       </c>
+      <c r="R41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I42" s="10">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I42" s="7">
         <v>50</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="7">
         <v>48</v>
       </c>
+      <c r="R42" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="S42" s="11">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I43" s="10">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I43" s="7">
         <v>50</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="7">
         <v>51</v>
       </c>
+      <c r="R43" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="S43" s="11">
+        <v>723</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I44" s="10">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I44" s="7">
         <v>50</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="7">
         <v>53</v>
       </c>
+      <c r="R44" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="S44" s="11">
+        <v>464</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I45" s="10">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I45" s="7">
         <v>75</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="7">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I46" s="10">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I46" s="7">
         <v>75</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="7">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I47" s="10">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I47" s="7">
         <v>100</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="7">
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I48" s="10">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I48" s="7">
         <v>100</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="7">
         <v>457</v>
       </c>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I49" s="10">
+      <c r="I49" s="7">
         <v>100</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="7">
         <v>464</v>
       </c>
     </row>
